--- a/report-mun.xlsx
+++ b/report-mun.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>480031.68</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>480031.68</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -642,7 +642,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>480031.68</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -650,7 +650,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>480031.68</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4413781.71</v>
+        <v>4053505.25</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>12750182.8</v>
+        <v>12695902.02</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -827,7 +827,7 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>4413781.71</v>
+        <v>4053505.25</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -835,10 +835,10 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="n">
-        <v>4107786.030000001</v>
+        <v>4053505.25</v>
       </c>
       <c r="O10" t="n">
-        <v>305995.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2627951.08</v>
+        <v>3236811.88</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2627456.08</v>
+        <v>3236811.88</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>2627951.08</v>
+        <v>3236811.88</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1020,10 +1020,10 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="n">
-        <v>2627456.08</v>
+        <v>3236811.88</v>
       </c>
       <c r="O15" t="n">
-        <v>495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>413094.04</v>
+        <v>387874.28</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>107098.36</v>
+        <v>100559.88</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>306490.68</v>
+        <v>287314.4</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1236,7 +1236,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>413094.04</v>
+        <v>387874.28</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1244,10 +1244,10 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>413589.04</v>
+        <v>387874.28</v>
       </c>
       <c r="O21" t="n">
-        <v>-495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>686664.0600000001</v>
+        <v>1192366.06</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>686664.0600000001</v>
+        <v>1192366.06</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -1489,7 +1489,7 @@
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>686664.0600000001</v>
+        <v>1192366.06</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1497,7 +1497,7 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="n">
-        <v>686664.0600000001</v>
+        <v>1192366.06</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>70000</v>
+        <v>251338.26</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>70000</v>
+        <v>251338.26</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -1777,7 +1777,7 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>70000</v>
+        <v>251338.26</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1785,7 +1785,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="n">
-        <v>70000</v>
+        <v>251338.26</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>248508.27</v>
+        <v>701458.4</v>
       </c>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>248508.27</v>
+        <v>701458.4</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -2065,7 +2065,7 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>248508.27</v>
+        <v>701458.4</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2073,7 +2073,7 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="n">
-        <v>248508.27</v>
+        <v>701458.4</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>

--- a/report-mun.xlsx
+++ b/report-mun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1075968.85</v>
+        <v>1657364.44</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1075968.85</v>
+        <v>1657364.44</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -642,7 +642,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1075968.85</v>
+        <v>1657364.44</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -650,7 +650,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>1075968.85</v>
+        <v>1657364.44</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3720227.13</v>
+        <v>37327607.43</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -761,14 +761,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>conta_contabil like "2___2%" and escrituracao like "S"</t>
+          <t>conta_contabil like "21__2%" and escrituracao like "S"</t>
         </is>
       </c>
       <c r="L8" t="b">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>12362623.9</v>
+        <v>1734235.2</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -800,14 +800,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>conta_contabil like "2___2%" and escrituracao like "S"</t>
+          <t>conta_contabil like "21__2%" and escrituracao like "S"</t>
         </is>
       </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>-8642396.77</v>
+        <v>-0</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -826,20 +826,30 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>3720227.13</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
-        <v>3720227.130000001</v>
-      </c>
-      <c r="O10" t="n">
-        <v>-0</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>saldo_atual_credor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>conta_contabil like "22__2%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="L10" t="b">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>35593372.23</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -847,36 +857,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Movimentação intra-OFSS das VPA e VPD</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
+          <t>Movimentação intra-OFSS do ativo e passivo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>saldo_atual_devedor</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>conta_contabil like "3___2%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>4514981.13</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>conta_contabil like "22__2%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0</v>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
     </row>
@@ -886,38 +896,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Movimentação intra-OFSS das VPA e VPD</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>saldo_atual_credor</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>conta_contabil like "3___2%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F12" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Movimentação intra-OFSS do ativo e passivo</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>37327607.43</v>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
+      <c r="N12" t="n">
+        <v>37327607.43</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -928,33 +928,33 @@
           <t>Movimentação intra-OFSS das VPA e VPD</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>saldo_atual_devedor</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>conta_contabil like "3___2%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5750924.43</v>
+      </c>
       <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>saldo_atual_credor</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>conta_contabil like "4___2%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="L13" t="b">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4514981.13</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
     </row>
@@ -967,33 +967,33 @@
           <t>Movimentação intra-OFSS das VPA e VPD</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>saldo_atual_credor</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>conta_contabil like "3___2%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0</v>
+      </c>
       <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>saldo_atual_devedor</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>conta_contabil like "4___2%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="L14" t="b">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
     </row>
@@ -1011,20 +1011,30 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>4514981.13</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
-        <v>4514981.13</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>saldo_atual_credor</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>conta_contabil like "4___2%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="L15" t="b">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5750924.43</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1032,36 +1042,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Contribuição previdenciária a receber pelo RPPS</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
+          <t>Movimentação intra-OFSS das VPA e VPD</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>saldo_atual_devedor</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>conta_contabil like "1136201%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F16" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>390523.92</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>conta_contabil like "4___2%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-0</v>
+      </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
     </row>
@@ -1071,38 +1081,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Contribuição previdenciária a receber pelo RPPS</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>saldo_atual_credor</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>conta_contabil like "1136201%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Movimentação intra-OFSS das VPA e VPD</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>5750924.43</v>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>5750924.43</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1113,33 +1113,33 @@
           <t>Contribuição previdenciária a receber pelo RPPS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>saldo_atual_devedor</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>conta_contabil like "1136201%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>391768.54</v>
+      </c>
       <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>saldo_atual_credor</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>conta_contabil like "21882%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="L18" t="b">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>101246.95</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
     </row>
@@ -1152,33 +1152,33 @@
           <t>Contribuição previdenciária a receber pelo RPPS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>saldo_atual_credor</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>conta_contabil like "1136201%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0</v>
+      </c>
       <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>saldo_atual_devedor</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>conta_contabil like "21882%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" t="n">
-        <v>-0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
     </row>
@@ -1199,24 +1199,24 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>BAL_DESP</t>
+          <t>BAL_VER</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>liquidado_a_pagar</t>
+          <t>saldo_atual_credor</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>elemento like "319113%"</t>
+          <t>conta_contabil like "21882%" and escrituracao like "S"</t>
         </is>
       </c>
       <c r="L20" t="b">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>289276.97</v>
+        <v>101569.66</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1235,20 +1235,30 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>390523.92</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
-        <v>390523.92</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>saldo_atual_devedor</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>conta_contabil like "21882%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="L21" t="b">
+        <v>1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1256,36 +1266,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Crédito adicional por redução em outra entidade</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>DECRETO</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>valor_credito_adicional</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>origem_recurso = 6</t>
-        </is>
-      </c>
-      <c r="F22" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>12000</v>
-      </c>
+          <t>Contribuição previdenciária a receber pelo RPPS</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>BAL_DESP</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>liquidado_a_pagar</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>elemento like "319113%"</t>
+        </is>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>290198.88</v>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
     </row>
@@ -1295,7 +1305,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Crédito adicional por redução em outra entidade</t>
+          <t>Contribuição previdenciária a receber pelo RPPS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1303,30 +1313,20 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>DECRETO</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>valor_reducao_dotacoes</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>origem_recurso = 6</t>
-        </is>
-      </c>
-      <c r="L23" t="b">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>12000</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>391768.54</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
+        <v>391768.54</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1337,25 +1337,35 @@
           <t>Crédito adicional por redução em outra entidade</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DECRETO</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>valor_credito_adicional</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>origem_recurso = 6</t>
+        </is>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>12000</v>
       </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
-        <v>12000</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1363,36 +1373,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Dotação adicional por fonte: anulação de dotação</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>saldo_atual_devedor</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>conta_contabil like "5221303%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F25" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2912556.06</v>
-      </c>
+          <t>Crédito adicional por redução em outra entidade</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>DECRETO</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>valor_reducao_dotacoes</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>origem_recurso = 6</t>
+        </is>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>12000</v>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
     </row>
@@ -1402,38 +1412,28 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Dotação adicional por fonte: anulação de dotação</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>saldo_atual_credor</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>conta_contabil like "5221303%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F26" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H26" t="inlineStr"/>
+          <t>Crédito adicional por redução em outra entidade</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>12000</v>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
+      <c r="N26" t="n">
+        <v>12000</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1444,33 +1444,33 @@
           <t>Dotação adicional por fonte: anulação de dotação</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>saldo_atual_devedor</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>conta_contabil like "5221303%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F27" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>4067473.63</v>
+      </c>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>DECRETO</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>valor_credito_adicional</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>origem_recurso in(5,6)</t>
-        </is>
-      </c>
-      <c r="L27" t="b">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2912556.06</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
     </row>
@@ -1483,25 +1483,35 @@
           <t>Dotação adicional por fonte: anulação de dotação</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>2912556.06</v>
-      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>saldo_atual_credor</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>conta_contabil like "5221303%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
-        <v>2912556.06</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1509,36 +1519,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Crédito especial reaberto</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>saldo_atual_devedor</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>conta_contabil like "522120202%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F29" t="b">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>339442.12</v>
-      </c>
+          <t>Dotação adicional por fonte: anulação de dotação</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>DECRETO</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>valor_credito_adicional</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>origem_recurso in(5,6)</t>
+        </is>
+      </c>
+      <c r="L29" t="b">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4067473.63</v>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
     </row>
@@ -1548,38 +1558,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Crédito especial reaberto</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>saldo_atual_credor</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>conta_contabil like "522120202%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Dotação adicional por fonte: anulação de dotação</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>4067473.63</v>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="N30" t="n">
+        <v>4067473.63</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1590,29 +1590,33 @@
           <t>Crédito especial reaberto</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>saldo_atual_devedor</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>conta_contabil like "522120202%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F31" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>339442.12</v>
+      </c>
       <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>DECRETO</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>valor_reaberto</t>
-        </is>
-      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="b">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>339442.12</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
     </row>
@@ -1625,25 +1629,35 @@
           <t>Crédito especial reaberto</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="n">
-        <v>339442.12</v>
-      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>saldo_atual_credor</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>conta_contabil like "522120202%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F32" t="b">
+        <v>1</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
-        <v>339442.12</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1651,36 +1665,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dotação adicional por fonte: excesso de arrecadação</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>saldo_atual_devedor</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>conta_contabil like "5221302%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F33" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>533350.4399999999</v>
-      </c>
+          <t>Crédito especial reaberto</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>DECRETO</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>valor_reaberto</t>
+        </is>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
+      <c r="L33" t="b">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>339442.12</v>
+      </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
     </row>
@@ -1690,38 +1700,28 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Dotação adicional por fonte: excesso de arrecadação</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>saldo_atual_credor</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>conta_contabil like "5221302%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F34" t="b">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+          <t>Crédito especial reaberto</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>339442.12</v>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
+      <c r="N34" t="n">
+        <v>339442.12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1732,33 +1732,33 @@
           <t>Dotação adicional por fonte: excesso de arrecadação</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>saldo_atual_devedor</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>conta_contabil like "5221302%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F35" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1451977.44</v>
+      </c>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>DECRETO</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>valor_credito_adicional</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>origem_recurso = 2</t>
-        </is>
-      </c>
-      <c r="L35" t="b">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>533350.4399999999</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
     </row>
@@ -1771,25 +1771,35 @@
           <t>Dotação adicional por fonte: excesso de arrecadação</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>533350.4399999999</v>
-      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>saldo_atual_credor</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>conta_contabil like "5221302%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F36" t="b">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
-        <v>533350.4399999999</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1797,36 +1807,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dotação adicional por fonte: reabertura</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>saldo_atual_devedor</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>conta_contabil like "5221306%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F37" t="b">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>339442.12</v>
-      </c>
+          <t>Dotação adicional por fonte: excesso de arrecadação</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>DECRETO</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>valor_credito_adicional</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>origem_recurso = 2</t>
+        </is>
+      </c>
+      <c r="L37" t="b">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1451977.44</v>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
     </row>
@@ -1836,38 +1846,28 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dotação adicional por fonte: reabertura</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>saldo_atual_credor</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>conta_contabil like "5221306%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F38" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H38" t="inlineStr"/>
+          <t>Dotação adicional por fonte: excesso de arrecadação</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>1451977.44</v>
+      </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
+      <c r="N38" t="n">
+        <v>1451977.44</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1878,29 +1878,33 @@
           <t>Dotação adicional por fonte: reabertura</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>saldo_atual_devedor</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>conta_contabil like "5221306%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>339442.12</v>
+      </c>
       <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>DECRETO</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>valor_reaberto</t>
-        </is>
-      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="b">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>339442.12</v>
-      </c>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
     </row>
@@ -1913,25 +1917,35 @@
           <t>Dotação adicional por fonte: reabertura</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>339442.12</v>
-      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>saldo_atual_credor</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>conta_contabil like "5221306%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F40" t="b">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
-        <v>339442.12</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1939,36 +1953,32 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dotação adicional por fonte: superávit financeiro</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>saldo_atual_devedor</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>conta_contabil like "5221301%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F41" t="b">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>843753.92</v>
-      </c>
+          <t>Dotação adicional por fonte: reabertura</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>DECRETO</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>valor_reaberto</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
+      <c r="L41" t="b">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>339442.12</v>
+      </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
     </row>
@@ -1978,38 +1988,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Dotação adicional por fonte: superávit financeiro</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>BAL_VER</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>saldo_atual_credor</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>conta_contabil like "5221301%" and escrituracao like "S"</t>
-        </is>
-      </c>
-      <c r="F42" t="b">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-0</v>
-      </c>
-      <c r="H42" t="inlineStr"/>
+          <t>Dotação adicional por fonte: reabertura</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>339442.12</v>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
+      <c r="N42" t="n">
+        <v>339442.12</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2020,33 +2020,33 @@
           <t>Dotação adicional por fonte: superávit financeiro</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>saldo_atual_devedor</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>conta_contabil like "5221301%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1146923.98</v>
+      </c>
       <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>DECRETO</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>valor_credito_adicional</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>origem_recurso = 1</t>
-        </is>
-      </c>
-      <c r="L43" t="b">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>843753.92</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
     </row>
@@ -2059,23 +2059,101 @@
           <t>Dotação adicional por fonte: superávit financeiro</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>843753.92</v>
-      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>BAL_VER</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>saldo_atual_credor</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>conta_contabil like "5221301%" and escrituracao like "S"</t>
+        </is>
+      </c>
+      <c r="F44" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
-        <v>843753.92</v>
-      </c>
-      <c r="O44" t="n">
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Dotação adicional por fonte: superávit financeiro</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>DECRETO</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>valor_credito_adicional</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>origem_recurso = 1</t>
+        </is>
+      </c>
+      <c r="L45" t="b">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1146923.98</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Dotação adicional por fonte: superávit financeiro</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="n">
+        <v>1146923.98</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
+        <v>1146923.98</v>
+      </c>
+      <c r="O46" t="n">
         <v>0</v>
       </c>
     </row>

--- a/report-mun.xlsx
+++ b/report-mun.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1657364.44</v>
+        <v>2237642.5</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1657364.44</v>
+        <v>2237642.5</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -642,7 +642,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1657364.44</v>
+        <v>2237642.5</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -650,7 +650,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>1657364.44</v>
+        <v>2237642.5</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>37327607.43</v>
+        <v>36989761.38</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1734235.2</v>
+        <v>1396389.15</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -905,7 +905,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>37327607.43</v>
+        <v>36989761.38</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -913,7 +913,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>37327607.43</v>
+        <v>36989761.38</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>5750924.43</v>
+        <v>7021120.87</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>5750924.43</v>
+        <v>7021120.87</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1090,7 +1090,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>5750924.43</v>
+        <v>7021120.87</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1098,7 +1098,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>5750924.43</v>
+        <v>7021120.87</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>391768.54</v>
+        <v>383824.07</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>101569.66</v>
+        <v>99509.97</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>290198.88</v>
+        <v>284314.1</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1314,7 +1314,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>391768.54</v>
+        <v>383824.07</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1322,10 +1322,10 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>391768.54</v>
+        <v>383824.0699999999</v>
       </c>
       <c r="O23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>4067473.63</v>
+        <v>6537136.79</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>4067473.63</v>
+        <v>6537136.79</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>4067473.63</v>
+        <v>6537136.79</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1575,7 +1575,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>4067473.63</v>
+        <v>6537136.79</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1451977.44</v>
+        <v>2949367.17</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1451977.44</v>
+        <v>2949367.17</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -1855,7 +1855,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>1451977.44</v>
+        <v>2949367.17</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1863,7 +1863,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>1451977.44</v>
+        <v>2949367.17</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1146923.98</v>
+        <v>1561565.63</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1146923.98</v>
+        <v>1561565.63</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2143,7 +2143,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>1146923.98</v>
+        <v>1561565.63</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2151,7 +2151,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>1146923.98</v>
+        <v>1561565.63</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>

--- a/report-mun.xlsx
+++ b/report-mun.xlsx
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2237642.5</v>
+        <v>482489.42</v>
       </c>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
@@ -622,7 +622,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2237642.5</v>
+        <v>482489.42</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -642,7 +642,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>2237642.5</v>
+        <v>482489.42</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -650,7 +650,7 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>2237642.5</v>
+        <v>482489.42</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>36989761.38</v>
+        <v>49090573.21</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1396389.15</v>
+        <v>2501127.79</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>35593372.23</v>
+        <v>46589445.42</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -905,7 +905,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>36989761.38</v>
+        <v>49090573.21</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -913,7 +913,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>36989761.38</v>
+        <v>49090573.21</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>7021120.87</v>
+        <v>3932694.17</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>7021120.87</v>
+        <v>3932694.17</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1090,7 +1090,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>7021120.87</v>
+        <v>3932694.17</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1098,7 +1098,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>7021120.87</v>
+        <v>3932694.17</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>383824.07</v>
+        <v>415427.35</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>99509.97</v>
+        <v>107676.85</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>284314.1</v>
+        <v>307750.5</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1314,7 +1314,7 @@
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>383824.07</v>
+        <v>415427.35</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1322,7 +1322,7 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>383824.0699999999</v>
+        <v>415427.35</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -1421,7 +1421,7 @@
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1429,7 +1429,7 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="n">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>6537136.79</v>
+        <v>3641846.54</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>6537136.79</v>
+        <v>3641846.54</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>6537136.79</v>
+        <v>3641846.54</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1575,7 +1575,7 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="n">
-        <v>6537136.79</v>
+        <v>3641846.54</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>339442.12</v>
+        <v>388882.66</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>339442.12</v>
+        <v>388882.66</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -1709,7 +1709,7 @@
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>339442.12</v>
+        <v>388882.66</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1717,7 +1717,7 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="n">
-        <v>339442.12</v>
+        <v>388882.66</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2949367.17</v>
+        <v>195310.33</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
@@ -1835,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2949367.17</v>
+        <v>195310.33</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -1855,7 +1855,7 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>2949367.17</v>
+        <v>195310.33</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1863,7 +1863,7 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="n">
-        <v>2949367.17</v>
+        <v>195310.33</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>339442.12</v>
+        <v>388882.66</v>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
@@ -1977,7 +1977,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>339442.12</v>
+        <v>388882.66</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -1997,7 +1997,7 @@
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>339442.12</v>
+        <v>388882.66</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2005,7 +2005,7 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="n">
-        <v>339442.12</v>
+        <v>388882.66</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1561565.63</v>
+        <v>542214.83</v>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1561565.63</v>
+        <v>542214.83</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -2143,7 +2143,7 @@
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>1561565.63</v>
+        <v>542214.83</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2151,7 +2151,7 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="n">
-        <v>1561565.63</v>
+        <v>542214.83</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
